--- a/doc/バトルゲーム設計書.xlsx
+++ b/doc/バトルゲーム設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systena\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systena\Desktop\git\battle\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>変更履歴</t>
     <rPh sb="0" eb="2">
@@ -204,14 +204,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Player</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>BattleHero</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -224,10 +216,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Stage</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>バトルゲーム</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -269,6 +257,119 @@
   </si>
   <si>
     <t>+ getEnemyList() : ArrayList&lt;EnemyBase&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayerFencer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayerWitch</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayerAx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PlayerMagicalSworsman</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>剣士</t>
+    <rPh sb="0" eb="2">
+      <t>ケンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魔法使い</t>
+    <rPh sb="0" eb="3">
+      <t>マホウツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>斧使い</t>
+    <rPh sb="0" eb="1">
+      <t>オノ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魔法剣士</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EnemyDemon</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EnemyGoblin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EnemySkelton</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WeakStage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NormalStage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>StrongStage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弱いステージ</t>
+    <rPh sb="0" eb="1">
+      <t>ヨワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>普通の強さのステージ</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強いステージ</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>悪魔</t>
+    <rPh sb="0" eb="2">
+      <t>アクマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゴブリン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガイコツ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1291,7 +1392,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1382,6 +1483,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1394,17 +1522,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1412,74 +1570,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="216">
@@ -1749,8 +1856,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="4701541" y="1180911"/>
-          <a:ext cx="848350" cy="1074610"/>
+          <a:off x="4671061" y="1211391"/>
+          <a:ext cx="909310" cy="1074610"/>
           <a:chOff x="2156461" y="2354390"/>
           <a:chExt cx="848350" cy="1333690"/>
         </a:xfrm>
@@ -1857,7 +1964,7 @@
       <xdr:grpSpPr>
         <a:xfrm rot="12331721">
           <a:off x="6614161" y="1051370"/>
-          <a:ext cx="772150" cy="1333690"/>
+          <a:ext cx="772150" cy="1409890"/>
           <a:chOff x="2156461" y="2354390"/>
           <a:chExt cx="848350" cy="1333690"/>
         </a:xfrm>
@@ -2178,7 +2285,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3086100" y="3985260"/>
+          <a:off x="3086100" y="4061460"/>
           <a:ext cx="2065020" cy="97155"/>
           <a:chOff x="3086100" y="5981700"/>
           <a:chExt cx="2065020" cy="97155"/>
@@ -2629,7 +2736,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="2026920" y="6903720"/>
+          <a:off x="2026920" y="6979920"/>
           <a:ext cx="830578" cy="127006"/>
           <a:chOff x="7322820" y="2906943"/>
           <a:chExt cx="861058" cy="127006"/>
@@ -2687,6 +2794,752 @@
           <xdr:cNvPr id="45" name="直線コネクタ 44"/>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="44" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="7322820" y="2987041"/>
+            <a:ext cx="759642" cy="1016"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132144</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6717</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>268025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>170198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="二等辺三角形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17880000">
+          <a:off x="3775944" y="1087317"/>
+          <a:ext cx="163481" cy="135881"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線コネクタ 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3101340" y="1181100"/>
+          <a:ext cx="746760" cy="396241"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>94044</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>229925</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="二等辺三角形 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16140000">
+          <a:off x="4042644" y="1285437"/>
+          <a:ext cx="163481" cy="135881"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3055620" y="1379220"/>
+          <a:ext cx="1059180" cy="853440"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25463</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161344</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>48277</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="二等辺三角形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16140000">
+          <a:off x="4278863" y="1331156"/>
+          <a:ext cx="163481" cy="135881"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3390900" y="1424940"/>
+          <a:ext cx="944880" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>281938</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12706</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="46" name="グループ化 45"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="11711842">
+          <a:off x="8260080" y="1318260"/>
+          <a:ext cx="861058" cy="127006"/>
+          <a:chOff x="7322820" y="2906943"/>
+          <a:chExt cx="861058" cy="127006"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="二等辺三角形 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="19808339">
+            <a:off x="8042395" y="2906943"/>
+            <a:ext cx="141483" cy="127006"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="48" name="直線コネクタ 47"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="47" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="7322820" y="2987041"/>
+            <a:ext cx="759642" cy="1016"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>274321</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>220979</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50807</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="49" name="グループ化 48"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="12751707">
+          <a:off x="8199121" y="1722121"/>
+          <a:ext cx="861058" cy="127006"/>
+          <a:chOff x="7322820" y="2906943"/>
+          <a:chExt cx="861058" cy="127006"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="二等辺三角形 49"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="19808339">
+            <a:off x="8042395" y="2906943"/>
+            <a:ext cx="141483" cy="127006"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="51" name="直線コネクタ 50"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="50" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="7322820" y="2987041"/>
+            <a:ext cx="759642" cy="1016"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167639</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>294645</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167638</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="52" name="グループ化 51"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="14360226">
+          <a:off x="3168653" y="7065006"/>
+          <a:ext cx="830578" cy="127006"/>
+          <a:chOff x="7322820" y="2906943"/>
+          <a:chExt cx="861058" cy="127006"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="二等辺三角形 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="19808339">
+            <a:off x="8042395" y="2906943"/>
+            <a:ext cx="141483" cy="127006"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="直線コネクタ 53"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="53" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="7322820" y="2987041"/>
+            <a:ext cx="759642" cy="1016"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>302266</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>30477</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="グループ化 54"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="13667741">
+          <a:off x="4090674" y="6927845"/>
+          <a:ext cx="830578" cy="127006"/>
+          <a:chOff x="7322820" y="2906943"/>
+          <a:chExt cx="861058" cy="127006"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="二等辺三角形 55"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="19808339">
+            <a:off x="8042395" y="2906943"/>
+            <a:ext cx="141483" cy="127006"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="57" name="直線コネクタ 56"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="56" idx="1"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
@@ -3050,7 +3903,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="21"/>
       <c r="J8" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
@@ -3278,409 +4131,584 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:AH45"/>
+  <dimension ref="D3:AI46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="7:34" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="N3" s="42" t="s">
+    <row r="3" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="N3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
-      <c r="X3" s="42" t="s">
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
+      <c r="X3" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="45"/>
-    </row>
-    <row r="4" spans="7:34" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G4" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="N4" s="46" t="s">
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="46"/>
+    </row>
+    <row r="4" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+      <c r="N4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="41"/>
-      <c r="X4" s="46" t="s">
+      <c r="O4" s="48"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="50"/>
+      <c r="X4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="41"/>
-      <c r="AE4" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="33"/>
-    </row>
-    <row r="5" spans="7:34" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="37"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="37"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="37"/>
-    </row>
-    <row r="6" spans="7:34" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G6" s="34"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="N6" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="49"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="51"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="50"/>
+      <c r="AE4" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="38"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="38"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="38"/>
+    </row>
+    <row r="6" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="N6" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="52"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
       <c r="X6" s="55" t="s">
         <v>26</v>
       </c>
       <c r="Y6" s="56"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="45"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="37"/>
-    </row>
-    <row r="7" spans="7:34" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="N7" s="38"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="41"/>
-    </row>
-    <row r="14" spans="7:34" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R14" s="42" t="s">
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="46"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="38"/>
+    </row>
+    <row r="7" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="50"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="50"/>
+    </row>
+    <row r="8" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="AE8" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="38"/>
+    </row>
+    <row r="10" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="38"/>
+    </row>
+    <row r="12" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="AE12" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF12" s="40"/>
+      <c r="AG12" s="41"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="G13" s="35"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="37"/>
+      <c r="AH13" s="38"/>
+    </row>
+    <row r="14" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="G14" s="35"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="R14" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="45"/>
-    </row>
-    <row r="15" spans="7:34" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R15" s="46" t="s">
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="46"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="37"/>
+      <c r="AH14" s="38"/>
+    </row>
+    <row r="15" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="R15" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="41"/>
-    </row>
-    <row r="16" spans="7:34" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R16" s="48" t="s">
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="50"/>
+    </row>
+    <row r="16" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="R16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="51"/>
-    </row>
-    <row r="17" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R17" s="52" t="s">
+      <c r="S16" s="52"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="54"/>
+    </row>
+    <row r="17" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="R17" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="54"/>
-    </row>
-    <row r="18" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R18" s="52" t="s">
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="32"/>
+    </row>
+    <row r="18" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="R18" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="54"/>
-    </row>
-    <row r="19" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R19" s="52" t="s">
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="32"/>
+    </row>
+    <row r="19" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="R19" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="32"/>
+    </row>
+    <row r="20" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="R20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="32"/>
+    </row>
+    <row r="21" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="R21" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="38"/>
+    </row>
+    <row r="22" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="G22" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="R22" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="54"/>
+    </row>
+    <row r="23" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="G23" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="R23" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="32"/>
+    </row>
+    <row r="24" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+      <c r="R24" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="32"/>
+    </row>
+    <row r="25" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="R25" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="32"/>
+    </row>
+    <row r="26" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="R26" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="32"/>
+    </row>
+    <row r="27" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="R27" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="32"/>
+    </row>
+    <row r="28" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="R28" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="32"/>
+    </row>
+    <row r="29" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="R29" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="32"/>
+    </row>
+    <row r="30" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="R30" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="32"/>
+    </row>
+    <row r="31" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="R31" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="32"/>
+    </row>
+    <row r="32" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="R32" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="32"/>
+    </row>
+    <row r="33" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="D33" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="46"/>
+      <c r="R33" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="34"/>
+    </row>
+    <row r="34" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="D34" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="50"/>
+      <c r="R34" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="38"/>
+    </row>
+    <row r="35" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="D35" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="38"/>
+    </row>
+    <row r="36" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="D36" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="54"/>
-    </row>
-    <row r="20" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R20" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="S20" s="53"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="54"/>
-    </row>
-    <row r="21" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R21" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="37"/>
-    </row>
-    <row r="22" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G22" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33"/>
-      <c r="R22" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="49"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="51"/>
-    </row>
-    <row r="23" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G23" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="R23" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="54"/>
-    </row>
-    <row r="24" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="R24" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="54"/>
-    </row>
-    <row r="25" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R25" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="54"/>
-    </row>
-    <row r="26" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R26" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="53"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="54"/>
-    </row>
-    <row r="27" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R27" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="54"/>
-    </row>
-    <row r="28" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R28" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="54"/>
-    </row>
-    <row r="29" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R29" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="54"/>
-    </row>
-    <row r="30" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R30" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="S30" s="53"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="54"/>
-    </row>
-    <row r="31" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R31" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="54"/>
-    </row>
-    <row r="32" spans="7:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R32" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="54"/>
-    </row>
-    <row r="33" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="D33" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="45"/>
-      <c r="R33" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="60"/>
-    </row>
-    <row r="34" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="D34" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="41"/>
-      <c r="R34" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="37"/>
-    </row>
-    <row r="35" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="D35" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="37"/>
-    </row>
-    <row r="36" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="D36" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="58"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
       <c r="L36" s="61"/>
       <c r="M36" s="62"/>
     </row>
     <row r="43" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G43" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" s="31"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="33"/>
+      <c r="G43" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="40"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42"/>
+      <c r="L43" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="M43" s="40"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="42"/>
+      <c r="Q43" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="R43" s="40"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="42"/>
     </row>
     <row r="44" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G44" s="34"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="38"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="38"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="36"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="38"/>
     </row>
     <row r="45" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G45" s="34"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="38"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="38"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="38"/>
+    </row>
+    <row r="46" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>58</v>
+      </c>
+      <c r="L46" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AE6:AH6"/>
+  <mergeCells count="68">
+    <mergeCell ref="Q43:T43"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="D35:M35"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="X7:AA7"/>
     <mergeCell ref="D33:M33"/>
     <mergeCell ref="D34:M34"/>
     <mergeCell ref="R17:W17"/>
@@ -3694,33 +4722,25 @@
     <mergeCell ref="R29:W29"/>
     <mergeCell ref="R31:W31"/>
     <mergeCell ref="R28:W28"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AE6:AH6"/>
     <mergeCell ref="R14:W14"/>
     <mergeCell ref="R15:W15"/>
     <mergeCell ref="R16:W16"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="AE10:AH10"/>
+    <mergeCell ref="AE12:AH12"/>
+    <mergeCell ref="AE13:AH13"/>
+    <mergeCell ref="AE14:AH14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/バトルゲーム設計書.xlsx
+++ b/doc/バトルゲーム設計書.xlsx
@@ -20,6 +20,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>変更履歴</t>
     <rPh sb="0" eb="2">
@@ -370,6 +371,80 @@
   </si>
   <si>
     <t>ガイコツ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>- maxHitPoint</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>- start():void</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>- selectStage():StageBase</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>- selectPlayer():PlayerBase</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>- selectDifficultyt():void</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>+ run():void</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-showHitPoint():void</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-tryToRunAway():boolean</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-battleInternal();void</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス図</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビュー指摘修正に伴い、クラス図を修正</t>
+    <rPh sb="4" eb="6">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>吉井</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1392,7 +1467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1483,6 +1558,96 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1498,95 +1663,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="216">
@@ -1838,16 +1919,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>16411</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>77370</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>44361</xdr:rowOff>
+      <xdr:rowOff>13880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>176621</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>54511</xdr:rowOff>
+      <xdr:rowOff>99059</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1856,8 +1937,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5400000">
-          <a:off x="4671061" y="1211391"/>
-          <a:ext cx="909310" cy="1074610"/>
+          <a:off x="5337715" y="1184815"/>
+          <a:ext cx="984339" cy="1141829"/>
           <a:chOff x="2156461" y="2354390"/>
           <a:chExt cx="848350" cy="1333690"/>
         </a:xfrm>
@@ -1945,16 +2026,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>213361</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>167450</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>71111</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>63490</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1962,9 +2043,9 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm rot="12331721">
-          <a:off x="6614161" y="1051370"/>
-          <a:ext cx="772150" cy="1409890"/>
+        <a:xfrm rot="10800000">
+          <a:off x="7124699" y="1279970"/>
+          <a:ext cx="558791" cy="1089850"/>
           <a:chOff x="2156461" y="2354390"/>
           <a:chExt cx="848350" cy="1333690"/>
         </a:xfrm>
@@ -2267,16 +2348,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>43162</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>201855</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>166773</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2284,9 +2365,9 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3086100" y="4061460"/>
-          <a:ext cx="2065020" cy="97155"/>
+        <a:xfrm rot="18826477" flipV="1">
+          <a:off x="3654502" y="2476420"/>
+          <a:ext cx="3908813" cy="158693"/>
           <a:chOff x="3086100" y="5981700"/>
           <a:chExt cx="2065020" cy="97155"/>
         </a:xfrm>
@@ -2374,134 +2455,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>115253</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>37149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3131820" y="5760720"/>
-          <a:ext cx="274320" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4754880" y="5768340"/>
-          <a:ext cx="365760" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>2..</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>267653</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>21909</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>60008</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>145734</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>212408</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2510,7 +2473,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2387918" y="6298884"/>
+          <a:off x="3759518" y="4942524"/>
           <a:ext cx="123825" cy="97155"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
@@ -2554,28 +2517,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>145734</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="38" name="直線コネクタ 37"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="37" idx="3"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2449830" y="6409374"/>
-          <a:ext cx="3810" cy="1233486"/>
+        <a:xfrm flipV="1">
+          <a:off x="3802380" y="5059680"/>
+          <a:ext cx="0" cy="899160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2600,133 +2561,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2476500" y="6316980"/>
-          <a:ext cx="274320" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2499360" y="7414260"/>
-          <a:ext cx="274320" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>245106</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>90174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>67312</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>82552</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2736,7 +2579,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="2026920" y="6979920"/>
+          <a:off x="2026920" y="7162800"/>
           <a:ext cx="830578" cy="127006"/>
           <a:chOff x="7322820" y="2906943"/>
           <a:chExt cx="861058" cy="127006"/>
@@ -3359,13 +3202,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>167639</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>294645</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>167638</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3375,7 +3218,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="14360226">
-          <a:off x="3168653" y="7065006"/>
+          <a:off x="3168653" y="7247886"/>
           <a:ext cx="830578" cy="127006"/>
           <a:chOff x="7322820" y="2906943"/>
           <a:chExt cx="861058" cy="127006"/>
@@ -3466,13 +3309,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>302266</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>30477</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3482,7 +3325,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="13667741">
-          <a:off x="4090674" y="6927845"/>
+          <a:off x="4090674" y="7110725"/>
           <a:ext cx="830578" cy="127006"/>
           <a:chOff x="7322820" y="2906943"/>
           <a:chExt cx="861058" cy="127006"/>
@@ -3567,6 +3410,219 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>43941</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>46231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>132286</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>154716</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="58" name="グループ化 57"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="16992668">
+          <a:off x="3028531" y="2578521"/>
+          <a:ext cx="2653565" cy="88345"/>
+          <a:chOff x="3086100" y="5981700"/>
+          <a:chExt cx="2065020" cy="97155"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="ひし形 58"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086100" y="5981700"/>
+            <a:ext cx="123825" cy="97155"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="60" name="直線コネクタ 59"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="59" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="3209925" y="6030278"/>
+            <a:ext cx="1941195" cy="4762"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>16193</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>113348</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="ひし形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2136458" y="4218624"/>
+          <a:ext cx="123825" cy="97155"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107634</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線コネクタ 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2183130" y="4267200"/>
+          <a:ext cx="1169670" cy="954"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4043,6 +4099,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="14">
+        <v>43155</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="15" t="s">
         <v>8</v>
@@ -4131,575 +4207,671 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:AI46"/>
+  <dimension ref="B3:AI47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="N3" s="43" t="s">
+      <c r="N3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
-      <c r="X3" s="43" t="s">
+      <c r="O3" s="49"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="51"/>
+      <c r="X3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="46"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="51"/>
     </row>
     <row r="4" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
-      <c r="N4" s="47" t="s">
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="N4" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="50"/>
-      <c r="X4" s="47" t="s">
+      <c r="O4" s="53"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="47"/>
+      <c r="X4" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="50"/>
-      <c r="AE4" s="39" t="s">
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="47"/>
+      <c r="AE4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="41"/>
-      <c r="AH4" s="42"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="33"/>
       <c r="AI4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="38"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="38"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="38"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="37"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="37"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="37"/>
     </row>
     <row r="6" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G6" s="35"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="N6" s="51" t="s">
+      <c r="G6" s="34"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="N6" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="52"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-      <c r="X6" s="55" t="s">
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="57"/>
+      <c r="X6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="45"/>
-      <c r="AA6" s="46"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="36"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="38"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="51"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="37"/>
     </row>
     <row r="7" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="N7" s="57"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="50"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="50"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="47"/>
     </row>
     <row r="8" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="AE8" s="39" t="s">
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33"/>
+      <c r="AE8" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="42"/>
+      <c r="AF8" s="31"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="33"/>
       <c r="AI8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="38"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="37"/>
     </row>
     <row r="10" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
-      <c r="AE10" s="35"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="38"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="37"/>
     </row>
     <row r="12" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
-      <c r="AE12" s="39" t="s">
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="AE12" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="42"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="33"/>
       <c r="AI12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="38"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="38"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="37"/>
     </row>
     <row r="14" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="R14" s="43" t="s">
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="V14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="46"/>
-      <c r="AE14" s="35"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="38"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="50"/>
+      <c r="AA14" s="51"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="37"/>
     </row>
     <row r="15" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R15" s="47" t="s">
+      <c r="V15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="50"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="47"/>
     </row>
     <row r="16" spans="4:35" ht="14.4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="R16" s="51" t="s">
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="V16" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="54"/>
-    </row>
-    <row r="17" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="R17" s="30" t="s">
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="57"/>
+    </row>
+    <row r="17" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="V17" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="32"/>
-    </row>
-    <row r="18" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="R18" s="30" t="s">
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="62"/>
+    </row>
+    <row r="18" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="V18" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="32"/>
-    </row>
-    <row r="19" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R19" s="30" t="s">
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="62"/>
+    </row>
+    <row r="19" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="V19" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="32"/>
-    </row>
-    <row r="20" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R20" s="30" t="s">
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="62"/>
+    </row>
+    <row r="20" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="V20" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="32"/>
-    </row>
-    <row r="21" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R21" s="35" t="s">
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="62"/>
+    </row>
+    <row r="21" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="V21" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="38"/>
-    </row>
-    <row r="22" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G22" s="39" t="s">
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="62"/>
+    </row>
+    <row r="22" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="V22" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="37"/>
+    </row>
+    <row r="23" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B23" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="R22" s="51" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="65"/>
+      <c r="L23" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="65"/>
+      <c r="V23" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="54"/>
-    </row>
-    <row r="23" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G23" s="35" t="s">
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="57"/>
+    </row>
+    <row r="24" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B24" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
-      <c r="R23" s="30" t="s">
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
+      <c r="L24" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="62"/>
+      <c r="V24" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="32"/>
-    </row>
-    <row r="24" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="38"/>
-      <c r="R24" s="30" t="s">
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="61"/>
+      <c r="AA24" s="62"/>
+    </row>
+    <row r="25" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B25" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="62"/>
+      <c r="L25" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="62"/>
+      <c r="V25" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="32"/>
-    </row>
-    <row r="25" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R25" s="30" t="s">
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="62"/>
+    </row>
+    <row r="26" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B26" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="62"/>
+      <c r="L26" s="60" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="62"/>
+      <c r="V26" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="32"/>
-    </row>
-    <row r="26" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R26" s="30" t="s">
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="62"/>
+    </row>
+    <row r="27" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B27" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="62"/>
+      <c r="L27" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="66"/>
+      <c r="V27" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="32"/>
-    </row>
-    <row r="27" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R27" s="30" t="s">
+      <c r="W27" s="61"/>
+      <c r="X27" s="61"/>
+      <c r="Y27" s="61"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="62"/>
+    </row>
+    <row r="28" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B28" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="66"/>
+      <c r="V28" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="32"/>
-    </row>
-    <row r="28" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R28" s="30" t="s">
+      <c r="W28" s="61"/>
+      <c r="X28" s="61"/>
+      <c r="Y28" s="61"/>
+      <c r="Z28" s="61"/>
+      <c r="AA28" s="62"/>
+    </row>
+    <row r="29" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="V29" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="32"/>
-    </row>
-    <row r="29" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R29" s="30" t="s">
+      <c r="W29" s="61"/>
+      <c r="X29" s="61"/>
+      <c r="Y29" s="61"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="62"/>
+    </row>
+    <row r="30" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="V30" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="32"/>
-    </row>
-    <row r="30" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R30" s="30" t="s">
+      <c r="W30" s="61"/>
+      <c r="X30" s="61"/>
+      <c r="Y30" s="61"/>
+      <c r="Z30" s="61"/>
+      <c r="AA30" s="62"/>
+    </row>
+    <row r="31" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="V31" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="32"/>
-    </row>
-    <row r="31" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R31" s="30" t="s">
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="62"/>
+    </row>
+    <row r="32" spans="2:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="V32" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="32"/>
-    </row>
-    <row r="32" spans="6:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="R32" s="30" t="s">
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="62"/>
+    </row>
+    <row r="33" spans="4:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="V33" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="32"/>
-    </row>
-    <row r="33" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="D33" s="43" t="s">
+      <c r="W33" s="61"/>
+      <c r="X33" s="61"/>
+      <c r="Y33" s="61"/>
+      <c r="Z33" s="61"/>
+      <c r="AA33" s="62"/>
+    </row>
+    <row r="34" spans="4:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="D34" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="46"/>
-      <c r="R33" s="30" t="s">
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="51"/>
+      <c r="V34" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="34"/>
-    </row>
-    <row r="34" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="D34" s="47" t="s">
+      <c r="W34" s="61"/>
+      <c r="X34" s="61"/>
+      <c r="Y34" s="61"/>
+      <c r="Z34" s="63"/>
+      <c r="AA34" s="64"/>
+    </row>
+    <row r="35" spans="4:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="D35" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="50"/>
-      <c r="R34" s="35" t="s">
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="47"/>
+      <c r="V35" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="38"/>
-    </row>
-    <row r="35" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="D35" s="35" t="s">
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="37"/>
+    </row>
+    <row r="36" spans="4:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="D36" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="38"/>
-    </row>
-    <row r="36" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="D36" s="59" t="s">
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="37"/>
+    </row>
+    <row r="37" spans="4:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="D37" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="62"/>
-    </row>
-    <row r="43" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G43" s="39" t="s">
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="43"/>
+    </row>
+    <row r="44" spans="4:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="G44" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H43" s="40"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42"/>
-      <c r="L43" s="39" t="s">
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+      <c r="L44" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="M43" s="40"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="42"/>
-      <c r="Q43" s="39" t="s">
+      <c r="M44" s="31"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="33"/>
+      <c r="Q44" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="R43" s="40"/>
-      <c r="S43" s="41"/>
-      <c r="T43" s="42"/>
-    </row>
-    <row r="44" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="38"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="38"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="38"/>
-    </row>
-    <row r="45" spans="4:23" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="38"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="38"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="38"/>
-    </row>
-    <row r="46" spans="4:23" x14ac:dyDescent="0.2">
-      <c r="G46" t="s">
+      <c r="R44" s="31"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="33"/>
+    </row>
+    <row r="45" spans="4:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="G45" s="34"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="37"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="37"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="37"/>
+    </row>
+    <row r="46" spans="4:27" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="G46" s="34"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="37"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="37"/>
+    </row>
+    <row r="47" spans="4:27" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
         <v>58</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L47" t="s">
         <v>59</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q47" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="Q43:T43"/>
-    <mergeCell ref="Q44:T44"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="F16:K16"/>
-    <mergeCell ref="F17:K17"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
+  <mergeCells count="77">
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="V16:AA16"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="AE9:AH9"/>
+    <mergeCell ref="AE10:AH10"/>
+    <mergeCell ref="AE12:AH12"/>
+    <mergeCell ref="AE13:AH13"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AE6:AH6"/>
+    <mergeCell ref="V14:AA14"/>
+    <mergeCell ref="V15:AA15"/>
+    <mergeCell ref="V21:AA21"/>
+    <mergeCell ref="V33:AA33"/>
+    <mergeCell ref="V34:AA34"/>
+    <mergeCell ref="V19:AA19"/>
+    <mergeCell ref="V35:AA35"/>
+    <mergeCell ref="V20:AA20"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="D34:M34"/>
     <mergeCell ref="D35:M35"/>
-    <mergeCell ref="D36:M36"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="V17:AA17"/>
+    <mergeCell ref="V26:AA26"/>
+    <mergeCell ref="V24:AA24"/>
+    <mergeCell ref="V25:AA25"/>
+    <mergeCell ref="V27:AA27"/>
+    <mergeCell ref="V31:AA31"/>
+    <mergeCell ref="V23:AA23"/>
+    <mergeCell ref="V28:AA28"/>
+    <mergeCell ref="V30:AA30"/>
+    <mergeCell ref="V32:AA32"/>
+    <mergeCell ref="V29:AA29"/>
+    <mergeCell ref="V22:AA22"/>
+    <mergeCell ref="V18:AA18"/>
     <mergeCell ref="N3:Q3"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="N5:Q5"/>
@@ -4708,39 +4880,34 @@
     <mergeCell ref="X4:AA4"/>
     <mergeCell ref="X5:AA5"/>
     <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="D34:M34"/>
-    <mergeCell ref="R17:W17"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AE6:AH6"/>
-    <mergeCell ref="R14:W14"/>
-    <mergeCell ref="R15:W15"/>
-    <mergeCell ref="R16:W16"/>
-    <mergeCell ref="AE8:AH8"/>
-    <mergeCell ref="AE9:AH9"/>
-    <mergeCell ref="AE10:AH10"/>
-    <mergeCell ref="AE12:AH12"/>
-    <mergeCell ref="AE13:AH13"/>
-    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="Q44:T44"/>
+    <mergeCell ref="Q45:T45"/>
+    <mergeCell ref="Q46:T46"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="F16:K16"/>
+    <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="D36:M36"/>
+    <mergeCell ref="D37:M37"/>
+    <mergeCell ref="L44:O44"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
